--- a/document/01_設計書/【技術研修】シーケンス図.xlsx
+++ b/document/01_設計書/【技術研修】シーケンス図.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8A4C60A-7AC9-45DA-9DBA-93000A81F824}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BA99142-F239-4CAD-82D8-28AF9EE97E3C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="834" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -343,6 +343,18 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -359,18 +371,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -17397,7 +17397,7 @@
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="700"/>
-            <a:t>04_DB</a:t>
+            <a:t>09_DB</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="700"/>
@@ -20821,102 +20821,102 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="11" t="s">
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="13" t="s">
+      <c r="K1" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="14"/>
+      <c r="L1" s="18"/>
     </row>
     <row r="2" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="17"/>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="16"/>
+      <c r="A2" s="11"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="20"/>
     </row>
     <row r="3" spans="1:12" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="17"/>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="11" t="s">
+      <c r="A3" s="11"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="15" t="s">
         <v>0</v>
       </c>
       <c r="K3" s="21">
         <v>44152</v>
       </c>
-      <c r="L3" s="14"/>
+      <c r="L3" s="18"/>
     </row>
     <row r="4" spans="1:12" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="17"/>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="16"/>
+      <c r="A4" s="11"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="20"/>
     </row>
     <row r="5" spans="1:12" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="17"/>
-      <c r="B5" s="17"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="11" t="s">
+      <c r="A5" s="11"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="15" t="s">
         <v>1</v>
       </c>
       <c r="K5" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="L5" s="14"/>
+      <c r="L5" s="18"/>
     </row>
     <row r="6" spans="1:12" s="1" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="19"/>
-      <c r="B6" s="19"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="15"/>
-      <c r="L6" s="16"/>
+      <c r="A6" s="13"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="19"/>
+      <c r="L6" s="20"/>
     </row>
     <row r="7" spans="1:12" s="1" customFormat="1" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A7" s="8" t="s">
@@ -20989,102 +20989,102 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="11" t="s">
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="13" t="s">
+      <c r="K1" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="14"/>
+      <c r="L1" s="18"/>
     </row>
     <row r="2" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="17"/>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="16"/>
+      <c r="A2" s="11"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="20"/>
     </row>
     <row r="3" spans="1:12" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="17"/>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="11" t="s">
+      <c r="A3" s="11"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="15" t="s">
         <v>0</v>
       </c>
       <c r="K3" s="21">
         <v>44152</v>
       </c>
-      <c r="L3" s="14"/>
+      <c r="L3" s="18"/>
     </row>
     <row r="4" spans="1:12" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="17"/>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="16"/>
+      <c r="A4" s="11"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="20"/>
     </row>
     <row r="5" spans="1:12" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="17"/>
-      <c r="B5" s="17"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="11" t="s">
+      <c r="A5" s="11"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="K5" s="13" t="s">
+      <c r="K5" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="L5" s="14"/>
+      <c r="L5" s="18"/>
     </row>
     <row r="6" spans="1:12" s="1" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="19"/>
-      <c r="B6" s="19"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="15"/>
-      <c r="L6" s="16"/>
+      <c r="A6" s="13"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="19"/>
+      <c r="L6" s="20"/>
     </row>
     <row r="7" spans="1:12" s="1" customFormat="1" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A7" s="8" t="s">
@@ -21157,102 +21157,102 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="11" t="s">
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="13" t="s">
+      <c r="K1" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="14"/>
+      <c r="L1" s="18"/>
     </row>
     <row r="2" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="17"/>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="16"/>
+      <c r="A2" s="11"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="20"/>
     </row>
     <row r="3" spans="1:12" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="17"/>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="11" t="s">
+      <c r="A3" s="11"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="15" t="s">
         <v>0</v>
       </c>
       <c r="K3" s="21">
         <v>44152</v>
       </c>
-      <c r="L3" s="14"/>
+      <c r="L3" s="18"/>
     </row>
     <row r="4" spans="1:12" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="17"/>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="16"/>
+      <c r="A4" s="11"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="20"/>
     </row>
     <row r="5" spans="1:12" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="17"/>
-      <c r="B5" s="17"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="11" t="s">
+      <c r="A5" s="11"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="K5" s="13" t="s">
+      <c r="K5" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="L5" s="14"/>
+      <c r="L5" s="18"/>
     </row>
     <row r="6" spans="1:12" s="1" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="19"/>
-      <c r="B6" s="19"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="15"/>
-      <c r="L6" s="16"/>
+      <c r="A6" s="13"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="19"/>
+      <c r="L6" s="20"/>
     </row>
     <row r="7" spans="1:12" s="1" customFormat="1" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A7" s="8" t="s">
@@ -21325,102 +21325,102 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="11" t="s">
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="13" t="s">
+      <c r="K1" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="14"/>
+      <c r="L1" s="18"/>
     </row>
     <row r="2" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="17"/>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="16"/>
+      <c r="A2" s="11"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="20"/>
     </row>
     <row r="3" spans="1:12" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="17"/>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="11" t="s">
+      <c r="A3" s="11"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="15" t="s">
         <v>0</v>
       </c>
       <c r="K3" s="21">
         <v>44152</v>
       </c>
-      <c r="L3" s="14"/>
+      <c r="L3" s="18"/>
     </row>
     <row r="4" spans="1:12" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="17"/>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="16"/>
+      <c r="A4" s="11"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="20"/>
     </row>
     <row r="5" spans="1:12" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="17"/>
-      <c r="B5" s="17"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="11" t="s">
+      <c r="A5" s="11"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="K5" s="13" t="s">
+      <c r="K5" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="L5" s="14"/>
+      <c r="L5" s="18"/>
     </row>
     <row r="6" spans="1:12" s="1" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="19"/>
-      <c r="B6" s="19"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="15"/>
-      <c r="L6" s="16"/>
+      <c r="A6" s="13"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="19"/>
+      <c r="L6" s="20"/>
     </row>
     <row r="7" spans="1:12" s="1" customFormat="1" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A7" s="8" t="s">
@@ -21494,102 +21494,102 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="11" t="s">
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="13" t="s">
+      <c r="K1" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="14"/>
+      <c r="L1" s="18"/>
     </row>
     <row r="2" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="17"/>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="16"/>
+      <c r="A2" s="11"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="20"/>
     </row>
     <row r="3" spans="1:12" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="17"/>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="11" t="s">
+      <c r="A3" s="11"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="15" t="s">
         <v>0</v>
       </c>
       <c r="K3" s="21">
         <v>44152</v>
       </c>
-      <c r="L3" s="14"/>
+      <c r="L3" s="18"/>
     </row>
     <row r="4" spans="1:12" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="17"/>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="16"/>
+      <c r="A4" s="11"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="20"/>
     </row>
     <row r="5" spans="1:12" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="17"/>
-      <c r="B5" s="17"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="11" t="s">
+      <c r="A5" s="11"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="K5" s="13" t="s">
+      <c r="K5" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="L5" s="14"/>
+      <c r="L5" s="18"/>
     </row>
     <row r="6" spans="1:12" s="1" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="19"/>
-      <c r="B6" s="19"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="15"/>
-      <c r="L6" s="16"/>
+      <c r="A6" s="13"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="19"/>
+      <c r="L6" s="20"/>
     </row>
     <row r="7" spans="1:12" s="1" customFormat="1" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A7" s="8" t="s">
@@ -21662,100 +21662,100 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="11" t="s">
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="13" t="s">
+      <c r="K1" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="14"/>
+      <c r="L1" s="18"/>
     </row>
     <row r="2" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="17"/>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="16"/>
+      <c r="A2" s="11"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="20"/>
     </row>
     <row r="3" spans="1:12" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="17"/>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="11" t="s">
+      <c r="A3" s="11"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="15" t="s">
         <v>0</v>
       </c>
       <c r="K3" s="21">
         <v>44152</v>
       </c>
-      <c r="L3" s="14"/>
+      <c r="L3" s="18"/>
     </row>
     <row r="4" spans="1:12" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="17"/>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="16"/>
+      <c r="A4" s="11"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="20"/>
     </row>
     <row r="5" spans="1:12" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="17"/>
-      <c r="B5" s="17"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="11" t="s">
+      <c r="A5" s="11"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="K5" s="13"/>
-      <c r="L5" s="14"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="18"/>
     </row>
     <row r="6" spans="1:12" s="1" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="19"/>
-      <c r="B6" s="19"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="15"/>
-      <c r="L6" s="16"/>
+      <c r="A6" s="13"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="19"/>
+      <c r="L6" s="20"/>
     </row>
     <row r="7" spans="1:12" s="1" customFormat="1" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A7" s="8" t="s">
